--- a/NASH_serum_data/Reformatted_csvs_3_classes_split_patient/CAD_thirtythree_repeat_1.xlsx
+++ b/NASH_serum_data/Reformatted_csvs_3_classes_split_patient/CAD_thirtythree_repeat_1.xlsx
@@ -1,445 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/NASH_serum_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC0627-3BD2-A64D-8404-792BCFBFCFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="End point" sheetId="1" r:id="rId1"/>
-    <sheet name="Protocol Information" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End point" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol Information" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
-  <si>
-    <t>Testname: DPH_Will_20uL_48Array_seal</t>
-  </si>
-  <si>
-    <t>Date: 23/06/2021  Time: 15:51:33 (UTC+1)</t>
-  </si>
-  <si>
-    <t>ID1: RB-P001880</t>
-  </si>
-  <si>
-    <t>ID2: RB-A001629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID3: </t>
-  </si>
-  <si>
-    <t>No. of Channels / Multichromatics: 1</t>
-  </si>
-  <si>
-    <t>No. of Cycles: 1</t>
-  </si>
-  <si>
-    <t>Configuration: Fluorescence</t>
-  </si>
-  <si>
-    <t>Used filter settings and gain values:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1: 350-15/450-20                                         1200</t>
-  </si>
-  <si>
-    <t>Focal height [mm]: 5</t>
-  </si>
-  <si>
-    <t>Chromatic: 1</t>
-  </si>
-  <si>
-    <t>Cycle: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Plate layout</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>7:12</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>19:24</t>
-  </si>
-  <si>
-    <t>A:H</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>I:P</t>
-  </si>
-  <si>
-    <t>Peptide layout</t>
-  </si>
-  <si>
-    <t>No Pep</t>
-  </si>
-  <si>
-    <t>CCPent</t>
-  </si>
-  <si>
-    <t>QLKEIA</t>
-  </si>
-  <si>
-    <t>CCHex2-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L28W</t>
-  </si>
-  <si>
-    <t>GRP22</t>
-  </si>
-  <si>
-    <t>CCHex</t>
-  </si>
-  <si>
-    <t>NLKEIA</t>
-  </si>
-  <si>
-    <t>CCHept-L28K</t>
-  </si>
-  <si>
-    <t>CCHept-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L7Y</t>
-  </si>
-  <si>
-    <t>GRP35</t>
-  </si>
-  <si>
-    <t>CCHex2</t>
-  </si>
-  <si>
-    <t>CCHept-I17G-L21G</t>
-  </si>
-  <si>
-    <t>CCHept-I17H</t>
-  </si>
-  <si>
-    <t>CCHept-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-L28Y</t>
-  </si>
-  <si>
-    <t>GRP46</t>
-  </si>
-  <si>
-    <t>CCHept</t>
-  </si>
-  <si>
-    <t>CCHept-I17A-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-I17K-L24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-I24Y</t>
-  </si>
-  <si>
-    <t>GRP51</t>
-  </si>
-  <si>
-    <t>CCHept-I24D</t>
-  </si>
-  <si>
-    <t>CCHept-L14A</t>
-  </si>
-  <si>
-    <t>CCHept-L7K</t>
-  </si>
-  <si>
-    <t>CCHept-L21N-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24Y</t>
-  </si>
-  <si>
-    <t>GRP52</t>
-  </si>
-  <si>
-    <t>CCHept-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-L21K-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21T-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L21Y-I24S</t>
-  </si>
-  <si>
-    <t>GRP63</t>
-  </si>
-  <si>
-    <t>CCHept-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21K</t>
-  </si>
-  <si>
-    <t>CCHept-L21E-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21H-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-I17T</t>
-  </si>
-  <si>
-    <t>GRP80</t>
-  </si>
-  <si>
-    <t>CCHept-I17K</t>
-  </si>
-  <si>
-    <t>CCPent-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-L7W</t>
-  </si>
-  <si>
-    <t>CCHept-I24P</t>
-  </si>
-  <si>
-    <t>CAD_thirtythree</t>
-  </si>
-  <si>
-    <t>1. Raw Data (350-15/450-20 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="19">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -486,19 +209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -509,19 +232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -532,19 +255,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -555,19 +278,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -578,19 +301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -601,19 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -649,7 +372,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,107 +458,98 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
+    <cellStyle name="Input" xfId="9" builtinId="20"/>
+    <cellStyle name="Output" xfId="10" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="Note" xfId="15" builtinId="10"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53"/>
+    <cellStyle name="Total" xfId="17" builtinId="25"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1135,1391 +849,1457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Testname: DPH_Will_20uL_48Array_seal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Date: 23/06/2021  Time: 15:51:33 (UTC+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ID1: RB-P001880</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ID2: RB-A001629</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ID3: </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>No. of Channels / Multichromatics: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No. of Cycles: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Configuration: Fluorescence</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Used filter settings and gain values:</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1: 350-15/450-20                                         1200</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Focal height [mm]: 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chromatic: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cycle: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>1. Raw Data (350-15/450-20 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C16" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E16" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="H16" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I16" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="J16" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K16" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="L16" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="M16" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="N16" t="n">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
-      <c r="N16">
-        <v>13</v>
-      </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>14</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>15</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>16</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>17</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>18</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>19</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>20</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>21</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>22</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>23</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>2287</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>11486</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>3754</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>11075</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>6528</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>24386</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>237</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>10021</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>365</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>12181</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>4297</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>19047</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>2180</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>8444</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>3169</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>10933</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>4688</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>16743</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>257</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>9012</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>493</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>13581</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>4194</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>18836</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>19229</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>9695</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>13657</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>8110</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>5176</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>9072</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>20228</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>9743</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>19365</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>14277</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>6255</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>8590</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>10723</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>7914</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>11048</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>7059</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>3685</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>8766</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>15022</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>8635</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>16888</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>10652</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>4709</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>7960</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>7573</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>10063</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>4687</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>4332</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>2355</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>10952</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>312</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>13547</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>3089</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>5394</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>2845</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>19363</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>7290</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>8534</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>4717</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>4724</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>2635</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>11988</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>404</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>11015</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>2438</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>5227</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>2879</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>15967</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>6378</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>12402</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>8437</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>3544</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>13869</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>5409</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>2314</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>13749</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>9325</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>691</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>16422</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>6566</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>7152</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>11709</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>8348</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>3302</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>14385</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>4457</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>1656</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>11489</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>8972</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>443</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>14613</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>6395</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>28500</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>9596</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>12307</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>4604</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>12291</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>8277</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>30386</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>8844</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>17845</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>5869</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>13300</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>12041</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>29371</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>8873</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>11926</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>5144</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>11617</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>8082</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>27743</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>8309</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>16308</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>5389</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>10970</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="n">
         <v>10897</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>27605</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>13600</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>5671</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>12655</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>7282</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>5699</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>56124</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>21249</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>10505</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>18492</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>7064</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>5969</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>29767</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>14121</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>6596</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>16349</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>7097</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>5344</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>55052</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>15397</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>9031</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>14830</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>6606</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" t="n">
         <v>5404</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>19886</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>15427</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>5770</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>15506</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>8209</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>1748</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>29619</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>12595</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>6021</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>16762</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>9082</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>658</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>19451</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>15227</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>5918</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>14369</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>9110</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>1408</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>29533</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>12973</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>6116</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>9791</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>7821</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" t="n">
         <v>722</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>12617</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>4499</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>1176</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>19834</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>10167</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>13364</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>13202</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>1313</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>566</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>23267</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>10479</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>14751</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>11788</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>4703</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>1093</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>18641</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>9418</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>13307</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>14079</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>1143</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>482</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>24754</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>9932</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" t="n">
         <v>12545</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>3108</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>14065</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>3900</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>12258</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>6014</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>29907</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>284</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>12666</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>751</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>15272</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>5628</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>25185</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>2929</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>12162</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>3822</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>11089</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>5384</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>25217</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>314</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>12898</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>589</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>13869</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>5017</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>20361</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>10072</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>12149</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>9795</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>3990</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>10855</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>31221</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>10376</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>19897</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>13419</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>5564</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>8313</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>19903</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>8912</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>10758</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>8446</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>4190</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>9582</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>31863</v>
       </c>
-      <c r="U26">
+      <c r="U26" t="n">
         <v>10159</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="n">
         <v>18570</v>
       </c>
-      <c r="W26">
+      <c r="W26" t="n">
         <v>13219</v>
       </c>
-      <c r="X26">
+      <c r="X26" t="n">
         <v>5437</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" t="n">
         <v>8969</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>7572</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>7807</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>4264</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>5282</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>3172</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>13763</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>446</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>13957</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>2884</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>6117</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>2735</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>20388</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>7069</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>10941</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>4695</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>4789</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>3402</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>12974</v>
       </c>
-      <c r="T27">
+      <c r="T27" t="n">
         <v>445</v>
       </c>
-      <c r="U27">
+      <c r="U27" t="n">
         <v>15011</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="n">
         <v>3109</v>
       </c>
-      <c r="W27">
+      <c r="W27" t="n">
         <v>5548</v>
       </c>
-      <c r="X27">
+      <c r="X27" t="n">
         <v>3064</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" t="n">
         <v>20728</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>6985</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>11813</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>7584</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>3112</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>15019</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>5675</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>1892</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>16627</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>11343</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>536</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>19396</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>6869</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>7701</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>12983</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>7826</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>3477</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>14081</v>
       </c>
-      <c r="S28">
+      <c r="S28" t="n">
         <v>4146</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="n">
         <v>1868</v>
       </c>
-      <c r="U28">
+      <c r="U28" t="n">
         <v>15963</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="n">
         <v>11017</v>
       </c>
-      <c r="W28">
+      <c r="W28" t="n">
         <v>564</v>
       </c>
-      <c r="X28">
+      <c r="X28" t="n">
         <v>18569</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" t="n">
         <v>7793</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>26695</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>8159</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>11664</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>5092</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>11684</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>8243</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>31921</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>9188</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>17061</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>5664</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>12355</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>11788</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>29281</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>10191</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>12380</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>4898</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>12429</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>8170</v>
       </c>
-      <c r="T29">
+      <c r="T29" t="n">
         <v>23308</v>
       </c>
-      <c r="U29">
+      <c r="U29" t="n">
         <v>8287</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="n">
         <v>15612</v>
       </c>
-      <c r="W29">
+      <c r="W29" t="n">
         <v>5183</v>
       </c>
-      <c r="X29">
+      <c r="X29" t="n">
         <v>11322</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" t="n">
         <v>9808</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>30255</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>16729</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>6841</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>16474</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>7501</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>6881</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>54329</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>21709</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>8856</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>17339</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>7097</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>5680</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>32647</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>16858</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>7617</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>18401</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>7729</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="n">
         <v>6469</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="n">
         <v>54811</v>
       </c>
-      <c r="U30">
+      <c r="U30" t="n">
         <v>20200</v>
       </c>
-      <c r="V30">
+      <c r="V30" t="n">
         <v>3507</v>
       </c>
-      <c r="W30">
+      <c r="W30" t="n">
         <v>15814</v>
       </c>
-      <c r="X30">
+      <c r="X30" t="n">
         <v>5907</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" t="n">
         <v>4213</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>22188</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>16841</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>5223</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>17250</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>8470</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>1743</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>29039</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>11807</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>6065</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>13562</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>8071</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>709</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>24426</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>17469</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>6201</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>14000</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>7992</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>1625</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="n">
         <v>25145</v>
       </c>
-      <c r="U31">
+      <c r="U31" t="n">
         <v>11599</v>
       </c>
-      <c r="V31">
+      <c r="V31" t="n">
         <v>5771</v>
       </c>
-      <c r="W31">
+      <c r="W31" t="n">
         <v>10386</v>
       </c>
-      <c r="X31">
+      <c r="X31" t="n">
         <v>7242</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" t="n">
         <v>629</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>13902</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>4721</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>1243</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>19738</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>10286</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>13826</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>13617</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>1276</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>597</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>27083</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>10953</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>12841</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="n">
         <v>13706</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>4475</v>
       </c>
-      <c r="P32">
+      <c r="P32" t="n">
         <v>1355</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="n">
         <v>17896</v>
       </c>
-      <c r="R32">
+      <c r="R32" t="n">
         <v>9716</v>
       </c>
-      <c r="S32">
+      <c r="S32" t="n">
         <v>13173</v>
       </c>
-      <c r="T32">
+      <c r="T32" t="n">
         <v>11736</v>
       </c>
-      <c r="U32">
+      <c r="U32" t="n">
         <v>1106</v>
       </c>
-      <c r="V32">
+      <c r="V32" t="n">
         <v>506</v>
       </c>
-      <c r="W32">
+      <c r="W32" t="n">
         <v>23250</v>
       </c>
-      <c r="X32">
+      <c r="X32" t="n">
         <v>10338</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" t="n">
         <v>10046</v>
       </c>
     </row>
@@ -2529,231 +2309,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Plate layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1:6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7:12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A:H</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAD_thirtythree</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CAD_thirtythree</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I:P</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAD_thirtythree</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CAD_thirtythree</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Peptide layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Pep</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CCPent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>QLKEIA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CCHex2-I24K</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CCHept-I24N</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CCHept-L28W</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GRP22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CCHex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NLKEIA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CCHept-L28K</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CCHept-I24T</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CCHept-L7Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GRP35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCHex2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CCHept-I17G-L21G</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CCHept-I17H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CCHept-I24H</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CCHept-L28Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GRP46</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CCHept</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CCHept-I17A-L21A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CCHept-I17K-I24E</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24S</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CCHept-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GRP51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CCHept-I24D</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CCHept-L14A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CCHept-L7K</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CCHept-L21N-I24N</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GRP52</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CCHept-I24E</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CCHept-I24A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CCHept-L21K-I24E</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CCHept-L21T-I24T</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CCHept-L21Y-I24S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GRP63</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CCHept-I24K</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CCHept-L21K</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CCHept-L21E-I24K</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CCHept-L21H-I24H</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CCHept-I17T</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GRP80</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CCHept-I17K</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CCPent-I24K</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CCHept-I24S</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CCHept-L7W</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CCHept-I24P</t>
+        </is>
       </c>
     </row>
   </sheetData>
